--- a/media/map.xlsx
+++ b/media/map.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22810"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="160" yWindow="0" windowWidth="15140" windowHeight="16380" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="160" yWindow="0" windowWidth="15140" windowHeight="16380" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="map" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="763" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="868" uniqueCount="9">
   <si>
     <t>#</t>
   </si>
@@ -48,15 +48,12 @@
   <si>
     <t>Y</t>
   </si>
-  <si>
-    <t>e</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -67,6 +64,22 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -89,14 +102,26 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="7">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -428,8 +453,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="S2" sqref="S2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1162,6 +1187,9 @@
       <c r="L9" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="M9" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="N9" t="s">
         <v>0</v>
       </c>
@@ -1245,11 +1273,17 @@
       <c r="L10" t="s">
         <v>0</v>
       </c>
+      <c r="M10" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="N10" t="s">
         <v>0</v>
       </c>
       <c r="O10" t="s">
         <v>0</v>
+      </c>
+      <c r="P10" t="s">
+        <v>7</v>
       </c>
       <c r="Q10" t="s">
         <v>0</v>
@@ -1289,6 +1323,21 @@
       </c>
     </row>
     <row r="11" spans="1:28">
+      <c r="A11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="F11" t="s">
         <v>0</v>
       </c>
@@ -1310,6 +1359,18 @@
       <c r="L11" t="s">
         <v>0</v>
       </c>
+      <c r="M11" t="s">
+        <v>7</v>
+      </c>
+      <c r="N11" t="s">
+        <v>7</v>
+      </c>
+      <c r="O11" t="s">
+        <v>7</v>
+      </c>
+      <c r="P11" t="s">
+        <v>7</v>
+      </c>
       <c r="Q11" t="s">
         <v>0</v>
       </c>
@@ -1330,9 +1391,39 @@
       </c>
       <c r="W11" t="s">
         <v>0</v>
+      </c>
+      <c r="X11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB11" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:28">
+      <c r="A12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="F12" t="s">
         <v>0</v>
       </c>
@@ -1345,6 +1436,36 @@
       <c r="I12" t="s">
         <v>0</v>
       </c>
+      <c r="J12" t="s">
+        <v>7</v>
+      </c>
+      <c r="K12" t="s">
+        <v>7</v>
+      </c>
+      <c r="L12" t="s">
+        <v>7</v>
+      </c>
+      <c r="M12" t="s">
+        <v>7</v>
+      </c>
+      <c r="N12" t="s">
+        <v>7</v>
+      </c>
+      <c r="O12" t="s">
+        <v>7</v>
+      </c>
+      <c r="P12" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>7</v>
+      </c>
+      <c r="R12" t="s">
+        <v>7</v>
+      </c>
+      <c r="S12" t="s">
+        <v>7</v>
+      </c>
       <c r="T12" t="s">
         <v>0</v>
       </c>
@@ -1356,9 +1477,39 @@
       </c>
       <c r="W12" t="s">
         <v>0</v>
+      </c>
+      <c r="X12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB12" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:28">
+      <c r="A13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="F13" t="s">
         <v>0</v>
       </c>
@@ -1371,6 +1522,9 @@
       <c r="I13" t="s">
         <v>0</v>
       </c>
+      <c r="J13" t="s">
+        <v>7</v>
+      </c>
       <c r="K13" t="s">
         <v>0</v>
       </c>
@@ -1395,6 +1549,9 @@
       <c r="R13" t="s">
         <v>0</v>
       </c>
+      <c r="S13" t="s">
+        <v>7</v>
+      </c>
       <c r="T13" t="s">
         <v>0</v>
       </c>
@@ -1406,6 +1563,21 @@
       </c>
       <c r="W13" t="s">
         <v>0</v>
+      </c>
+      <c r="X13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB13" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:28">
@@ -1436,6 +1608,9 @@
       <c r="I14" t="s">
         <v>0</v>
       </c>
+      <c r="J14" t="s">
+        <v>7</v>
+      </c>
       <c r="K14" t="s">
         <v>0</v>
       </c>
@@ -1459,6 +1634,9 @@
       </c>
       <c r="R14" t="s">
         <v>0</v>
+      </c>
+      <c r="S14" t="s">
+        <v>7</v>
       </c>
       <c r="T14" t="s">
         <v>0</v>
@@ -1490,10 +1668,34 @@
     </row>
     <row r="15" spans="1:28">
       <c r="A15" t="s">
-        <v>9</v>
+        <v>7</v>
+      </c>
+      <c r="B15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" t="s">
+        <v>7</v>
       </c>
       <c r="G15" t="s">
-        <v>1</v>
+        <v>7</v>
+      </c>
+      <c r="H15" t="s">
+        <v>7</v>
+      </c>
+      <c r="I15" t="s">
+        <v>7</v>
+      </c>
+      <c r="J15" t="s">
+        <v>7</v>
       </c>
       <c r="K15" t="s">
         <v>0</v>
@@ -1519,11 +1721,35 @@
       <c r="R15" t="s">
         <v>0</v>
       </c>
+      <c r="S15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="T15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="U15" t="s">
+        <v>7</v>
+      </c>
       <c r="V15" t="s">
         <v>1</v>
       </c>
+      <c r="W15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="X15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA15" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="AB15" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:28">
@@ -1554,6 +1780,9 @@
       <c r="I16" t="s">
         <v>0</v>
       </c>
+      <c r="J16" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="K16" t="s">
         <v>0</v>
       </c>
@@ -1577,6 +1806,9 @@
       </c>
       <c r="R16" t="s">
         <v>0</v>
+      </c>
+      <c r="S16" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="T16" t="s">
         <v>0</v>
@@ -1607,6 +1839,18 @@
       </c>
     </row>
     <row r="17" spans="1:28">
+      <c r="A17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="E17" t="s">
         <v>0</v>
       </c>
@@ -1622,6 +1866,9 @@
       <c r="I17" t="s">
         <v>0</v>
       </c>
+      <c r="J17" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="K17" t="s">
         <v>0</v>
       </c>
@@ -1646,6 +1893,9 @@
       <c r="R17" t="s">
         <v>0</v>
       </c>
+      <c r="S17" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="T17" t="s">
         <v>0</v>
       </c>
@@ -1660,9 +1910,33 @@
       </c>
       <c r="X17" t="s">
         <v>0</v>
+      </c>
+      <c r="Y17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB17" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:28">
+      <c r="A18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="E18" t="s">
         <v>0</v>
       </c>
@@ -1677,6 +1951,12 @@
       </c>
       <c r="I18" t="s">
         <v>0</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="L18" t="s">
         <v>3</v>
@@ -1696,6 +1976,12 @@
       <c r="Q18" t="s">
         <v>7</v>
       </c>
+      <c r="R18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="S18" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="T18" t="s">
         <v>0</v>
       </c>
@@ -1710,9 +1996,33 @@
       </c>
       <c r="X18" t="s">
         <v>0</v>
+      </c>
+      <c r="Y18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB18" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:28">
+      <c r="A19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="E19" t="s">
         <v>0</v>
       </c>
@@ -1728,6 +2038,9 @@
       <c r="I19" t="s">
         <v>0</v>
       </c>
+      <c r="J19" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="K19" t="s">
         <v>0</v>
       </c>
@@ -1752,6 +2065,9 @@
       <c r="R19" t="s">
         <v>0</v>
       </c>
+      <c r="S19" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="T19" t="s">
         <v>0</v>
       </c>
@@ -1766,6 +2082,18 @@
       </c>
       <c r="X19" t="s">
         <v>0</v>
+      </c>
+      <c r="Y19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB19" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:28">
@@ -1796,6 +2124,9 @@
       <c r="I20" t="s">
         <v>0</v>
       </c>
+      <c r="J20" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="K20" t="s">
         <v>0</v>
       </c>
@@ -1819,6 +2150,9 @@
       </c>
       <c r="R20" t="s">
         <v>0</v>
+      </c>
+      <c r="S20" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="T20" t="s">
         <v>0</v>
@@ -2182,6 +2516,9 @@
       <c r="Y24" t="s">
         <v>1</v>
       </c>
+      <c r="Z24" t="s">
+        <v>1</v>
+      </c>
       <c r="AA24" t="s">
         <v>2</v>
       </c>
@@ -2429,6 +2766,9 @@
         <v>1</v>
       </c>
       <c r="W27" t="s">
+        <v>1</v>
+      </c>
+      <c r="X27" t="s">
         <v>1</v>
       </c>
       <c r="Y27" t="s">
@@ -2803,7 +3143,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData/>
